--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,100 +43,100 @@
     <t>crude</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>free</t>
+    <t>giving</t>
   </si>
   <si>
     <t>positive</t>
@@ -145,70 +145,73 @@
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>give</t>
+    <t>want</t>
   </si>
   <si>
     <t>health</t>
@@ -217,15 +220,21 @@
     <t>essential</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -238,12 +247,12 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +631,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
         <v>41</v>
@@ -701,16 +713,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8888888888888888</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -780,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -830,38 +842,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8378378378378378</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C6">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L6">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>31</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6">
-        <v>0.9148936170212766</v>
-      </c>
-      <c r="L6">
-        <v>43</v>
-      </c>
-      <c r="M6">
-        <v>43</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -872,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.8928571428571429</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8253424657534246</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C8">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8828125</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8205128205128205</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8802816901408451</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L9">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M9">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8157894736842105</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10">
-        <v>0.8627450980392157</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8536585365853658</v>
+        <v>0.8671875</v>
       </c>
       <c r="L11">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M11">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.85</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6007751937984496</v>
+        <v>0.5771812080536913</v>
       </c>
       <c r="C13">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="D13">
-        <v>310</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,38 +1242,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5490196078431373</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>0.8484848484848485</v>
+      </c>
+      <c r="L14">
         <v>28</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>28</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>23</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="L14">
-        <v>87</v>
-      </c>
-      <c r="M14">
-        <v>87</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5100671140939598</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4933333333333333</v>
+        <v>0.5324675324675324</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.7875</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L16">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="M16">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4915254237288136</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4545454545454545</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.7676240208877284</v>
+        <v>0.80625</v>
       </c>
       <c r="L18">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="M18">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4406779661016949</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7352941176470589</v>
+        <v>0.78</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M20">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.417989417989418</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.7230769230769231</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,37 +1642,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3214285714285715</v>
+        <v>0.206989247311828</v>
       </c>
       <c r="C22">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7362924281984334</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,45 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.3125</v>
-      </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>55</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>0.7209302325581395</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1726,41 +1714,17 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1849865951742627</v>
-      </c>
-      <c r="C24">
-        <v>69</v>
-      </c>
-      <c r="D24">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>304</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>0.72</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>0.6882352941176471</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L25">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="M25">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1798,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26">
-        <v>0.6853932584269663</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L26">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M26">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1824,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27">
-        <v>0.6779661016949152</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L27">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="M27">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6569037656903766</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L28">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.6444444444444445</v>
+        <v>0.65625</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.6410256410256411</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1928,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6301369863013698</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1954,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1980,21 +1944,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.6142857142857143</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2006,21 +1970,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.453125</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2032,47 +1996,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.4305555555555556</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L35">
+        <v>39</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>31</v>
-      </c>
-      <c r="M35">
-        <v>31</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.4262295081967213</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2084,47 +2048,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.2692307692307692</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.2283464566929134</v>
+        <v>0.375</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2136,47 +2100,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.2018779342723005</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>170</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.1923076923076923</v>
+        <v>0.267175572519084</v>
       </c>
       <c r="L40">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2188,73 +2152,73 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>336</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.184652278177458</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="L41">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>340</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.1448598130841121</v>
+        <v>0.2344497607655502</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>183</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.1185682326621924</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="L43">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="M43">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2266,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>788</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.1009174311926606</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2292,47 +2256,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>294</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.07666666666666666</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L45">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>831</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.07407407407407407</v>
+        <v>0.1534883720930233</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2344,47 +2308,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>450</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.07098765432098765</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>602</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.06351039260969978</v>
+        <v>0.1356502242152466</v>
       </c>
       <c r="L48">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="M48">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="N48">
         <v>0.98</v>
@@ -2396,85 +2360,241 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>811</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.05555555555555555</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L49">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N49">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2023</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>0.02101519560297446</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L50">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M50">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N50">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0.18</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3028</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51">
+        <v>0.08500772797527048</v>
+      </c>
+      <c r="L51">
+        <v>55</v>
+      </c>
+      <c r="M51">
+        <v>58</v>
+      </c>
+      <c r="N51">
+        <v>0.95</v>
+      </c>
+      <c r="O51">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K52">
+        <v>0.08247422680412371</v>
+      </c>
+      <c r="L52">
+        <v>40</v>
+      </c>
+      <c r="M52">
+        <v>41</v>
+      </c>
+      <c r="N52">
+        <v>0.98</v>
+      </c>
+      <c r="O52">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K51">
-        <v>0.01474741135864449</v>
-      </c>
-      <c r="L51">
-        <v>47</v>
-      </c>
-      <c r="M51">
-        <v>61</v>
-      </c>
-      <c r="N51">
-        <v>0.77</v>
-      </c>
-      <c r="O51">
-        <v>0.23</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>3140</v>
+      <c r="K53">
+        <v>0.08092485549132948</v>
+      </c>
+      <c r="L53">
+        <v>70</v>
+      </c>
+      <c r="M53">
+        <v>72</v>
+      </c>
+      <c r="N53">
+        <v>0.97</v>
+      </c>
+      <c r="O53">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54">
+        <v>0.07337723424270931</v>
+      </c>
+      <c r="L54">
+        <v>156</v>
+      </c>
+      <c r="M54">
+        <v>173</v>
+      </c>
+      <c r="N54">
+        <v>0.9</v>
+      </c>
+      <c r="O54">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55">
+        <v>0.03432642487046632</v>
+      </c>
+      <c r="L55">
+        <v>106</v>
+      </c>
+      <c r="M55">
+        <v>125</v>
+      </c>
+      <c r="N55">
+        <v>0.85</v>
+      </c>
+      <c r="O55">
+        <v>0.15</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K56">
+        <v>0.03014553014553015</v>
+      </c>
+      <c r="L56">
+        <v>29</v>
+      </c>
+      <c r="M56">
+        <v>35</v>
+      </c>
+      <c r="N56">
+        <v>0.83</v>
+      </c>
+      <c r="O56">
+        <v>0.17</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57">
+        <v>0.02576185988061577</v>
+      </c>
+      <c r="L57">
+        <v>82</v>
+      </c>
+      <c r="M57">
+        <v>100</v>
+      </c>
+      <c r="N57">
+        <v>0.82</v>
+      </c>
+      <c r="O57">
+        <v>0.18</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3101</v>
       </c>
     </row>
   </sheetData>
